--- a/Data_processed/industry/fibres.xlsx
+++ b/Data_processed/industry/fibres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:CW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,20 +446,495 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>..1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>..2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>process</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>eco-costs of.3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>human</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>human tox</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>metals</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>plastic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>fossil tra</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>carbon</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ced</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.1</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>non-renewable.2</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>renewable.2</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>recipe2016</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.1</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.2</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.3</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.4</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>recipe.5</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>global warming,</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>global warming, .2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>stratospheric</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>ionizing</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation,</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>fine particulate</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>ozone formation, .1</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>terrestrial</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>freshwater</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>marine</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>human .1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>human .2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>land use</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>mineral resource</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>fossil resource</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption,</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>water consumption, .1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ef 3.1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>acidification</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>climate change</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ecotoxicity</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>particulate</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication, .1</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>eutrophication,</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity,</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>human toxicity, non-cancer</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ionising radiation</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>land use.1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ozone depletion</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>photochemical ozone formation</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>resource use,.1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>water use</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>traci</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>traci.1</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>traci.2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>traci.3</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>traci.4</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>traci.5</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>traci.6</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>traci.7</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>traci.8</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>traci.9</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>pollutants</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>biodiversity.1</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>classyfire</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>chemicals,plastics, and wood</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>note:</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 107</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 110</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>unnamed: 118</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>source_file</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
@@ -478,18 +953,297 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>A.060.01.101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Materials, fibers</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Aramid st gr</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>15.928532041491</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2986774044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.213548515291</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12.0682401218</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.348066</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.056978408</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.30792141</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.27842681</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.011352634</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0014111007</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0074868597</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.23631456</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.0018191218</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.6123</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12.066421</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.4137291e-05</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>15.65377333333334</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="Z2" t="n">
+        <v>1732.4853</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>232.65834</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1499.1612</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.038976262</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.34462715</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.2821594</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.41279207</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.38055651</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.015664233</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.016571329</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.2815138e-05</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>5.7929855e-08</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2.3209144</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.4553875e-05</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>4.3915727e-08</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1.1997185e-12</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>2.0763e-08</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3.337066e-08</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>8.185005100000001e-06</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4.8838938e-09</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>9.127886699999999e-09</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>2.972161e-13</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>7.9874e-15</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>8.0551975e-13</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2.785289e-14</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>9.1549141e-15</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.1501583e-08</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.0623251e-08</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00016257157</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>2.3207518</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.0028918819</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>3.6976001e-05</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.00043646874</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>2.7708646e-05</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>2.468372e-05</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>2.0478114e-05</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>3.104499e-05</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1.9335336e-06</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>5.1923821e-06</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>5.1253006e-05</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>5.3762229e-05</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.0022023805</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>1.167389e-10</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>4.9e-05</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>15.520674</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.84362955</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.048708114</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.0053023178</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>9.321345800000001e-10</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>2.6636487e-08</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.00088032944</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.02543353</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>31.82483</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>2.348066</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.8998917823999999</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.601214378</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1.213548515291</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>12.0682401218</v>
+      </c>
+      <c r="CP2" t="inlineStr"/>
+      <c r="CQ2" t="inlineStr"/>
+      <c r="CR2" t="inlineStr"/>
+      <c r="CS2" t="inlineStr"/>
+      <c r="CT2" t="inlineStr"/>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>fibres.xlsx</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -508,18 +1262,297 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>A.060.01.102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Materials, fibers</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Carbon fibre</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>17.47472192154</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.1706854137</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.38926787184</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.074644636</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.840124</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.3994824</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.85543925</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.92302764</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.22443779</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.0071650317</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.016054952</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.13411068</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.010098035</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.064546601</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.00023554184</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>85.60082666666666</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="Z3" t="n">
+        <v>1129.4168</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1117.737</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>8.018211300000001</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1.9547008</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.7068847</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2.2713024</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2.1114246</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.08006533</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.07981247299999999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.00012658421</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>2.9609959e-07</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>11.178217</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>7.943756599999999e-05</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>2.3968231e-07</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>6.5484631e-12</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2.4734728e-08</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>4.7097373e-05</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>5.6407244e-09</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>5.0759893e-08</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>9.147826199999999e-12</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>8.0591141e-13</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>1.6181462e-13</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.289751e-09</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>2.324338e-08</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00084720802</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>11.17737</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.0048410604</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.00034995404</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.0023867781</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>1.6152168e-05</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.00048915899</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>1.0538703e-05</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1.6572032e-05</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.00019915837</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.001372748</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>1.421734e-13</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>85.600825</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.23943346</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.058132586</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>4.2889216e-09</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>5.158128e-07</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.020228994</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.67535732</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>153.28965</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>12.840124</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>4.559717743699999</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3.38903233</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>3.38926787184</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0.074644636</v>
+      </c>
+      <c r="CP3" t="inlineStr"/>
+      <c r="CQ3" t="inlineStr"/>
+      <c r="CR3" t="inlineStr"/>
+      <c r="CS3" t="inlineStr"/>
+      <c r="CT3" t="inlineStr"/>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>fibres.xlsx</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -538,18 +1571,297 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>A.060.01.103</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Materials, fibers</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">kg </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Glass fibre</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.301227792</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0187884</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.096439392</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.073858455</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.022580937</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0187884</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>1.24</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="Z4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.046692047</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.045157726</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.0015343212</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>2.7072977e-06</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5.6742647e-09</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.15072e-06</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>3.472e-09</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>9.486e-14</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2.7937e-09</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1.553784e-06</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>3.9603e-10</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>1.796681e-09</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>9.458799999999999e-12</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>6.658406e-05</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1.3306624e-05</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>3.457449e-05</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>9.612445600000001e-06</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>1.8085894e-06</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>2.4611599e-07</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>2.7450495e-06</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>4.2907449e-06</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.051715071</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0.009519</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.0002378343</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0.00047256102</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0.115227792</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.096439392</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0.096439392</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="inlineStr"/>
+      <c r="CQ4" t="inlineStr"/>
+      <c r="CR4" t="inlineStr"/>
+      <c r="CS4" t="inlineStr"/>
+      <c r="CT4" t="inlineStr"/>
+      <c r="CU4" t="inlineStr"/>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>fibres.xlsx</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Global</t>
         </is>

--- a/Data_processed/industry/fibres.xlsx
+++ b/Data_processed/industry/fibres.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/fibres.xlsx
+++ b/Data_processed/industry/fibres.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/fibres.xlsx
+++ b/Data_processed/industry/fibres.xlsx
@@ -136,6 +136,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.928532041491</v>
+        <v>15.65377333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>15.65377333333334</v>
+        <v>1732.4853</v>
       </c>
       <c r="F2" t="n">
-        <v>1732.4853</v>
+        <v>0.00043646874</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>17.47472192154</v>
+        <v>85.60082666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>85.60082666666666</v>
+        <v>1129.4168</v>
       </c>
       <c r="F3" t="n">
-        <v>1129.4168</v>
+        <v>0.0023867781</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.301227792</v>
+        <v>1.24</v>
       </c>
       <c r="E4" t="n">
-        <v>1.24</v>
+        <v>4.72</v>
       </c>
       <c r="F4" t="n">
-        <v>4.72</v>
+        <v>3.457449e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -565,5 +610,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>